--- a/5 semestr/mat modeling/theme_3/data_for_task2.xlsx
+++ b/5 semestr/mat modeling/theme_3/data_for_task2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3C5F1-E878-4201-8ED1-7063F3BFEC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D258CC2-A32B-4CA0-9C54-6ACCDE363551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{7A3E0A9A-F04B-4C01-9699-CF7E3D269A45}"/>
+    <workbookView xWindow="3465" yWindow="6240" windowWidth="28800" windowHeight="15885" xr2:uid="{A000EA7E-569F-4724-A11C-AB982D969AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,20 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>кп</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,78 +382,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AEF180-DE9F-4F2D-B0AD-2BB5152971CE}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A493CE-9EC5-456C-B057-76D2BD94D581}">
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>75</v>
-      </c>
-      <c r="F2">
-        <v>21</v>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>75</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>240</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
